--- a/设计文档/分发管理子系统接口说明.xlsx
+++ b/设计文档/分发管理子系统接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="190">
   <si>
     <t>接口说明：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -761,6 +761,18 @@
   </si>
   <si>
     <t>汇总统计功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationID            int                            分站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationID           int                            分站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationID           int                            分站ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,24 +1160,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="B353" sqref="B353"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="142" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1197,12 +1209,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1218,57 +1230,57 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +1288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1312,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1308,22 +1320,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1339,17 +1351,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1357,7 +1369,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +1385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1389,12 +1401,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1410,57 +1422,57 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1468,12 +1480,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1505,37 +1517,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1551,17 +1563,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -1593,7 +1605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -1601,12 +1613,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -1622,17 +1634,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -1640,7 +1652,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -1656,7 +1668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -1672,1600 +1684,1615 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>5</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>29</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B101" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>10</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>9</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>26</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>12</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B108" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>5</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>29</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B111" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B112" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B115" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B116" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B117" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B118" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B119" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>8</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>2</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>19</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>0</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>12</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B128" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B129" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B130" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>5</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>7</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B133" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B134" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>8</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>10</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>9</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>26</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>12</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B142" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>5</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>29</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B146" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B147" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>8</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>10</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>9</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>26</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>12</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B155" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B156" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B157" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B158" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A159" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>5</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A160" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>29</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B161" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B162" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A163" t="s">
+    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>10</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>9</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>26</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>12</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B169" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>5</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>29</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B172" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B173" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B174" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B175" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B176" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B177" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A178" t="s">
+    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>8</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>2</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>19</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>0</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>12</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B186" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B187" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>5</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>7</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B190" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B191" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A192" t="s">
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>8</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A195" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>10</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A196" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>9</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A197" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>26</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A198" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>12</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B199" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A201" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>5</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A202" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>29</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B203" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B204" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A205" t="s">
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>8</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A208" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>10</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A209" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>9</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A210" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>26</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A211" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>12</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B212" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B213" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B214" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A215" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>5</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B217" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>29</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B218" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B217" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B218" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A219" t="s">
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>8</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A221" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>10</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B223" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A222" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>9</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B224" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A223" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>26</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B225" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A224" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>12</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B226" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B225" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>5</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B228" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A227" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>29</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B229" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B228" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B229" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B230" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B231" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B232" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B233" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>8</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A237" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>2</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B239" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A238" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>19</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B240" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A239" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>0</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B241" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>12</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B242" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B241" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B242" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A243" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>5</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B245" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A244" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>7</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B246" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B245" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B246" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A247" t="s">
+    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>8</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A250" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>10</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B252" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A251" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>9</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B253" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A252" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>26</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B254" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A253" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>12</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B255" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B254" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A256" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>5</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B258" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A257" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>29</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B259" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B258" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B259" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A260" t="s">
+    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>8</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A263" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>10</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B265" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A264" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>9</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B266" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>26</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B267" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>12</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B268" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B267" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B268" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B269" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A270" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>5</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B273" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>29</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B274" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B272" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B273" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A274" t="s">
+    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>8</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B277" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A276" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>10</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B279" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A277" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>9</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B280" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A278" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>26</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B281" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>12</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B282" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B280" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A281" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>5</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B284" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A282" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>29</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B285" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B283" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B284" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B285" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B286" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B287" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B288" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A289" t="s">
+    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>8</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B292" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A292" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>2</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B295" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A293" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>19</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B296" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A294" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>0</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B297" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A295" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>12</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B298" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B296" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B297" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B298" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B299" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B300" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A301" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>5</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B304" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A302" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>7</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B305" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B303" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B304" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A305" t="s">
+    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>8</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B308" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A308" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>10</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B311" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A309" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>9</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B312" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A310" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>26</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B313" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A311" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>12</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B314" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B312" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B313" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A315" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>5</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B318" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A316" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>29</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B319" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B317" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B318" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A319" t="s">
+    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>8</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A322" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>10</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B325" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A323" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>9</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B326" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A324" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>26</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B327" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A325" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>12</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B328" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B326" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B327" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B328" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B329" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B330" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A331" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>5</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B334" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A332" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>29</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B335" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B333" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B334" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A335" t="s">
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
         <v>8</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B338" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A337" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
         <v>10</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B340" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A338" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
         <v>9</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B341" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A339" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
         <v>26</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B342" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A340" t="s">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
         <v>12</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B343" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B341" t="s">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A342" t="s">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>5</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B345" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A343" t="s">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
         <v>29</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B346" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B344" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B345" t="s">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B346" t="s">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B347" t="s">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B348" t="s">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B349" t="s">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B350" t="s">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A351" t="s">
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
         <v>8</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B354" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A353" t="s">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A354" t="s">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>10</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B357" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A355" t="s">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
         <v>9</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B358" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A356" t="s">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
         <v>26</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B359" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A357" t="s">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
         <v>12</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B360" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B358" t="s">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A359" t="s">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
         <v>5</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B362" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A360" t="s">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
         <v>29</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B363" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B361" t="s">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B362" t="s">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B363" t="s">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B364" t="s">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B365" t="s">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.15">
-      <c r="A366" t="s">
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
         <v>8</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="B369" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3274,20 +3301,20 @@
   <hyperlinks>
     <hyperlink ref="B75" r:id="rId1" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
     <hyperlink ref="B88" r:id="rId2" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B105" r:id="rId3" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B139" r:id="rId4" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B152" r:id="rId5" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B166" r:id="rId6" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B196" r:id="rId7" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B209" r:id="rId8" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B222" r:id="rId9" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B251" r:id="rId10" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B264" r:id="rId11" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B277" r:id="rId12" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B309" r:id="rId13" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B323" r:id="rId14" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B338" r:id="rId15" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
-    <hyperlink ref="B355" r:id="rId16" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B106" r:id="rId3" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B140" r:id="rId4" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B153" r:id="rId5" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B167" r:id="rId6" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B197" r:id="rId7" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B210" r:id="rId8" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B224" r:id="rId9" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B253" r:id="rId10" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B266" r:id="rId11" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B280" r:id="rId12" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B312" r:id="rId13" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B326" r:id="rId14" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B341" r:id="rId15" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
+    <hyperlink ref="B358" r:id="rId16" display="http://127.0.0.1:8080/TermProject/ChocAnServlet?method=iUpdateState&amp;ID=123789456&amp;state=0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
